--- a/test_pkg/data.xlsx
+++ b/test_pkg/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bert\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bert\Documents\GitHub\ast_test\test_pkg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wireshark" sheetId="1" r:id="rId1"/>
@@ -1317,183 +1317,182 @@
     <t>CVE_2015_3417_VULN_COMPLETE_0</t>
   </si>
   <si>
-    <t>CVE_2015_3395_ffmpeg0.9.4_msrle_decode_pal4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE_2015_3395_ffmpeg0.6.7_msrle_decode_pal4</t>
-  </si>
-  <si>
-    <t>CVE_2014_9676_ffmpeg1.0.9_seg_write_packet</t>
-  </si>
-  <si>
-    <t>CVE_2014_8544_ffmpeg1.1.9_tiff_decode_tag</t>
-  </si>
-  <si>
-    <t>CVE_2014_8542_ffmpeg1.0.9_avcodec_align_dimensions2</t>
-  </si>
-  <si>
-    <t>CVE_2014_8542_ffmpeg0.8.15_avcodec_align_dimensions2</t>
-  </si>
-  <si>
-    <t>CVE_2014_8541_ffmpeg2.0.5_ff_mjpeg_decode_sof</t>
-  </si>
-  <si>
-    <t>CVE_2014_8541_ffmpeg1.2.8_ff_mjpeg_decode_sof</t>
-  </si>
-  <si>
-    <t>CVE_2014_8541_ffmpeg1.1.9_ff_mjpeg_decode_sof</t>
-  </si>
-  <si>
-    <t>CVE_2014_5271_ffmpeg1.2.7_encode_slice</t>
-  </si>
-  <si>
-    <t>CVE_2013_7023_ffmpeg1.0.8_ff_combine_frame</t>
-  </si>
-  <si>
-    <t>CVE_2013_7015_ffmpeg1.0.7_flashsv_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2013_7009_ffmpeg0.9.2_rpza_decode_stream</t>
-  </si>
-  <si>
-    <t>CVE_2013_3675_ffmpeg1.1.1_process_frame_obj</t>
-  </si>
-  <si>
-    <t>CVE_2013_3670_ffmpeg0.8.4_rle_unpack</t>
-  </si>
-  <si>
-    <t>CVE_2013_0866_ffmpeg0.9.4_aac_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0866_ffmpeg0.6.7_aac_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0860_ffmpeg0.9.4_ff_er_frame_end</t>
-  </si>
-  <si>
-    <t>CVE_2013_0853_ffmpeg0.9.4_wavpack_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2013_0852_ffmpeg0.9.4_parse_picture_segment</t>
-  </si>
-  <si>
-    <t>CVE_2013_0849_ffmpeg0.6.7_roq_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0848_ffmpeg0.8.15_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0848_ffmpeg0.11.5_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0848_ffmpeg0.10.16_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2012_2803_ffmpeg0.10.9_mpeg_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2012_2802_ffmpeg0.8.9_ac3_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2012_2788_ffmpeg0.7.9_avi_read_packet</t>
-  </si>
-  <si>
-    <t>CVE_2012_2786_ffmpeg0.9.4_decode_wdlt</t>
-  </si>
-  <si>
-    <t>CVE_2012_2783_ffmpeg0.8.3_ff_vp56_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2012_2776_ffmpeg0.10.9_decode_cell_data</t>
-  </si>
-  <si>
-    <t>CVE_2012_2774_ffmpeg0.10.16_MPV_frame_start</t>
-  </si>
-  <si>
-    <t>CVE_2012_0850_ffmpeg0.6.5_sbr_qmf_synthesis</t>
-  </si>
-  <si>
-    <t>CVE_2011_4579_ffmpeg0.6.3_svq1_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2011_3941_ffmpeg0.8.9_decode_mb</t>
-  </si>
-  <si>
-    <t>CVE_2015_3811_wireshark1.12.3_decompressed_entry</t>
-  </si>
-  <si>
-    <t>CVE_2015_3811_wireshark1.10.9_get_wcp_window_ptr</t>
-  </si>
-  <si>
-    <t>CVE_2013_5719_wireshark1.8.9_dissect_r3_cmdmfg_forceoptions</t>
-  </si>
-  <si>
-    <t>CVE_2013_5719_wireshark1.8.9_dissect_r3_upstreammfgfield_checksumresults</t>
-  </si>
-  <si>
-    <t>CVE_2013_5718_wireshark1.8.9_dissect_nbap_T_dCH_ID</t>
-  </si>
-  <si>
-    <t>CVE_2013_4933_wireshark1.8.8_netmon_open</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_tlv_e</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_tv</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_tv_short</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_v</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_v_short</t>
-  </si>
-  <si>
-    <t>CVE_2013_4076_wireshark1.8.0_dissect_iphc_crtp_fh</t>
-  </si>
-  <si>
-    <t>CVE_2013_1584_wireshark1.6.9_dissect_version_5_and_6_primary_header</t>
-  </si>
-  <si>
-    <t>CVE_2013_1572_wireshark1.6.7_dissect_oampdu_event_notification</t>
-  </si>
-  <si>
-    <t>CVE_2012_6062_wireshark1.6.9_dissect_rtcp_app</t>
-  </si>
-  <si>
-    <t>CVE_2012_6053_wireshark1.6.9_dissect_usb_configuration_descriptor</t>
-  </si>
-  <si>
-    <t>CVE_2012_4289_wireshark1.6.9_dissect_query_afp_set_acl</t>
-  </si>
-  <si>
-    <t>CVE_2012_4289_wireshark1.6.9_proto_register_afp</t>
-  </si>
-  <si>
-    <t>CVE_2012_4285_wireshark1.6.9_dissect_pft</t>
-  </si>
-  <si>
-    <t>CVE_2012_0067_wireshark1.4.9_iptrace_read_1_0</t>
-  </si>
-  <si>
-    <t>CVE_2012_0041_wireshark1.4.9_dissect_packet</t>
-  </si>
-  <si>
-    <t>CVE_2011_4102_wireshark1.4.9_erf_read_header</t>
-  </si>
-  <si>
-    <t>CVE_2011_1139_wireshark1.2.0_pcapng_read_packet_block</t>
+    <t>CVE_2015_3811_wireshark1_12_3_decompressed_entry</t>
+  </si>
+  <si>
+    <t>CVE_2015_3811_wireshark1_10_9_get_wcp_window_ptr</t>
+  </si>
+  <si>
+    <t>CVE_2013_5719_wireshark1_8_9_dissect_r3_cmdmfg_forceoptions</t>
+  </si>
+  <si>
+    <t>CVE_2013_5719_wireshark1_8_9_dissect_r3_upstreammfgfield_checksumresults</t>
+  </si>
+  <si>
+    <t>CVE_2013_5718_wireshark1_8_9_dissect_nbap_T_dCH_ID</t>
+  </si>
+  <si>
+    <t>CVE_2013_4933_wireshark1_8_8_netmon_open</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_tlv_e</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_tv</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_tv_short</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_v</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_v_short</t>
+  </si>
+  <si>
+    <t>CVE_2013_4076_wireshark1_8_0_dissect_iphc_crtp_fh</t>
+  </si>
+  <si>
+    <t>CVE_2013_1584_wireshark1_6_9_dissect_version_5_and_6_primary_header</t>
+  </si>
+  <si>
+    <t>CVE_2013_1572_wireshark1_6_7_dissect_oampdu_event_notification</t>
+  </si>
+  <si>
+    <t>CVE_2012_6062_wireshark1_6_9_dissect_rtcp_app</t>
+  </si>
+  <si>
+    <t>CVE_2012_6053_wireshark1_6_9_dissect_usb_configuration_descriptor</t>
+  </si>
+  <si>
+    <t>CVE_2012_4289_wireshark1_6_9_dissect_query_afp_set_acl</t>
+  </si>
+  <si>
+    <t>CVE_2012_4289_wireshark1_6_9_proto_register_afp</t>
+  </si>
+  <si>
+    <t>CVE_2012_4285_wireshark1_6_9_dissect_pft</t>
+  </si>
+  <si>
+    <t>CVE_2012_0067_wireshark1_4_9_iptrace_read_1_0</t>
+  </si>
+  <si>
+    <t>CVE_2012_0041_wireshark1_4_9_dissect_packet</t>
+  </si>
+  <si>
+    <t>CVE_2011_4102_wireshark1_4_9_erf_read_header</t>
+  </si>
+  <si>
+    <t>CVE_2011_1139_wireshark1_2_0_pcapng_read_packet_block</t>
+  </si>
+  <si>
+    <t>CVE_2015_3395_ffmpeg0_9_4_msrle_decode_pal4</t>
+  </si>
+  <si>
+    <t>CVE_2015_3395_ffmpeg0_6_7_msrle_decode_pal4</t>
+  </si>
+  <si>
+    <t>CVE_2014_9676_ffmpeg1_0_9_seg_write_packet</t>
+  </si>
+  <si>
+    <t>CVE_2014_8544_ffmpeg1_1_9_tiff_decode_tag</t>
+  </si>
+  <si>
+    <t>CVE_2014_8542_ffmpeg1_0_9_avcodec_align_dimensions2</t>
+  </si>
+  <si>
+    <t>CVE_2014_8542_ffmpeg0_8_15_avcodec_align_dimensions2</t>
+  </si>
+  <si>
+    <t>CVE_2014_8541_ffmpeg2_0_5_ff_mjpeg_decode_sof</t>
+  </si>
+  <si>
+    <t>CVE_2014_8541_ffmpeg1_2_8_ff_mjpeg_decode_sof</t>
+  </si>
+  <si>
+    <t>CVE_2014_8541_ffmpeg1_1_9_ff_mjpeg_decode_sof</t>
+  </si>
+  <si>
+    <t>CVE_2014_5271_ffmpeg1_2_7_encode_slice</t>
+  </si>
+  <si>
+    <t>CVE_2013_7023_ffmpeg1_0_8_ff_combine_frame</t>
+  </si>
+  <si>
+    <t>CVE_2013_7015_ffmpeg1_0_7_flashsv_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2013_7009_ffmpeg0_9_2_rpza_decode_stream</t>
+  </si>
+  <si>
+    <t>CVE_2013_3675_ffmpeg1_1_1_process_frame_obj</t>
+  </si>
+  <si>
+    <t>CVE_2013_3670_ffmpeg0_8_4_rle_unpack</t>
+  </si>
+  <si>
+    <t>CVE_2013_0866_ffmpeg0_9_4_aac_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0866_ffmpeg0_6_7_aac_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0860_ffmpeg0_9_4_ff_er_frame_end</t>
+  </si>
+  <si>
+    <t>CVE_2013_0853_ffmpeg0_9_4_wavpack_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2013_0852_ffmpeg0_9_4_parse_picture_segment</t>
+  </si>
+  <si>
+    <t>CVE_2013_0849_ffmpeg0_6_7_roq_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0848_ffmpeg0_8_15_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0848_ffmpeg0_11_5_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0848_ffmpeg0_10_16_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2012_2803_ffmpeg0_10_9_mpeg_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2012_2802_ffmpeg0_8_9_ac3_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2012_2788_ffmpeg0_7_9_avi_read_packet</t>
+  </si>
+  <si>
+    <t>CVE_2012_2786_ffmpeg0_9_4_decode_wdlt</t>
+  </si>
+  <si>
+    <t>CVE_2012_2783_ffmpeg0_8_3_ff_vp56_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2012_2776_ffmpeg0_10_9_decode_cell_data</t>
+  </si>
+  <si>
+    <t>CVE_2012_2774_ffmpeg0_10_16_MPV_frame_start</t>
+  </si>
+  <si>
+    <t>CVE_2012_0850_ffmpeg0_6_5_sbr_qmf_synthesis</t>
+  </si>
+  <si>
+    <t>CVE_2011_4579_ffmpeg0_6_3_svq1_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2011_3941_ffmpeg0_8_9_decode_mb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1507,12 +1506,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1548,7 +1541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4050,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4061,117 +4054,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -4184,8 +4177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A1:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4195,172 +4188,172 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/test_pkg/data.xlsx
+++ b/test_pkg/data.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bert\Documents\GitHub\ast_test\test_pkg\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="wireshark" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J27"/>
 </workbook>
 </file>
 
@@ -1317,182 +1313,183 @@
     <t>CVE_2015_3417_VULN_COMPLETE_0</t>
   </si>
   <si>
-    <t>CVE_2015_3811_wireshark1_12_3_decompressed_entry</t>
-  </si>
-  <si>
-    <t>CVE_2015_3811_wireshark1_10_9_get_wcp_window_ptr</t>
-  </si>
-  <si>
-    <t>CVE_2013_5719_wireshark1_8_9_dissect_r3_cmdmfg_forceoptions</t>
-  </si>
-  <si>
-    <t>CVE_2013_5719_wireshark1_8_9_dissect_r3_upstreammfgfield_checksumresults</t>
-  </si>
-  <si>
-    <t>CVE_2013_5718_wireshark1_8_9_dissect_nbap_T_dCH_ID</t>
-  </si>
-  <si>
-    <t>CVE_2013_4933_wireshark1_8_8_netmon_open</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1_8_8_elem_tlv_e</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1_8_8_elem_tv</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1_8_8_elem_tv_short</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1_8_8_elem_v</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1_8_8_elem_v_short</t>
-  </si>
-  <si>
-    <t>CVE_2013_4076_wireshark1_8_0_dissect_iphc_crtp_fh</t>
-  </si>
-  <si>
-    <t>CVE_2013_1584_wireshark1_6_9_dissect_version_5_and_6_primary_header</t>
-  </si>
-  <si>
-    <t>CVE_2013_1572_wireshark1_6_7_dissect_oampdu_event_notification</t>
-  </si>
-  <si>
-    <t>CVE_2012_6062_wireshark1_6_9_dissect_rtcp_app</t>
-  </si>
-  <si>
-    <t>CVE_2012_6053_wireshark1_6_9_dissect_usb_configuration_descriptor</t>
-  </si>
-  <si>
-    <t>CVE_2012_4289_wireshark1_6_9_dissect_query_afp_set_acl</t>
-  </si>
-  <si>
-    <t>CVE_2012_4289_wireshark1_6_9_proto_register_afp</t>
-  </si>
-  <si>
-    <t>CVE_2012_4285_wireshark1_6_9_dissect_pft</t>
-  </si>
-  <si>
-    <t>CVE_2012_0067_wireshark1_4_9_iptrace_read_1_0</t>
-  </si>
-  <si>
-    <t>CVE_2012_0041_wireshark1_4_9_dissect_packet</t>
-  </si>
-  <si>
-    <t>CVE_2011_4102_wireshark1_4_9_erf_read_header</t>
-  </si>
-  <si>
-    <t>CVE_2011_1139_wireshark1_2_0_pcapng_read_packet_block</t>
-  </si>
-  <si>
-    <t>CVE_2015_3395_ffmpeg0_9_4_msrle_decode_pal4</t>
-  </si>
-  <si>
-    <t>CVE_2015_3395_ffmpeg0_6_7_msrle_decode_pal4</t>
-  </si>
-  <si>
-    <t>CVE_2014_9676_ffmpeg1_0_9_seg_write_packet</t>
-  </si>
-  <si>
-    <t>CVE_2014_8544_ffmpeg1_1_9_tiff_decode_tag</t>
-  </si>
-  <si>
-    <t>CVE_2014_8542_ffmpeg1_0_9_avcodec_align_dimensions2</t>
-  </si>
-  <si>
-    <t>CVE_2014_8542_ffmpeg0_8_15_avcodec_align_dimensions2</t>
-  </si>
-  <si>
-    <t>CVE_2014_8541_ffmpeg2_0_5_ff_mjpeg_decode_sof</t>
-  </si>
-  <si>
-    <t>CVE_2014_8541_ffmpeg1_2_8_ff_mjpeg_decode_sof</t>
-  </si>
-  <si>
-    <t>CVE_2014_8541_ffmpeg1_1_9_ff_mjpeg_decode_sof</t>
-  </si>
-  <si>
-    <t>CVE_2014_5271_ffmpeg1_2_7_encode_slice</t>
-  </si>
-  <si>
-    <t>CVE_2013_7023_ffmpeg1_0_8_ff_combine_frame</t>
-  </si>
-  <si>
-    <t>CVE_2013_7015_ffmpeg1_0_7_flashsv_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2013_7009_ffmpeg0_9_2_rpza_decode_stream</t>
-  </si>
-  <si>
-    <t>CVE_2013_3675_ffmpeg1_1_1_process_frame_obj</t>
-  </si>
-  <si>
-    <t>CVE_2013_3670_ffmpeg0_8_4_rle_unpack</t>
-  </si>
-  <si>
-    <t>CVE_2013_0866_ffmpeg0_9_4_aac_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0866_ffmpeg0_6_7_aac_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0860_ffmpeg0_9_4_ff_er_frame_end</t>
-  </si>
-  <si>
-    <t>CVE_2013_0853_ffmpeg0_9_4_wavpack_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2013_0852_ffmpeg0_9_4_parse_picture_segment</t>
-  </si>
-  <si>
-    <t>CVE_2013_0849_ffmpeg0_6_7_roq_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0848_ffmpeg0_8_15_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0848_ffmpeg0_11_5_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0848_ffmpeg0_10_16_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2012_2803_ffmpeg0_10_9_mpeg_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2012_2802_ffmpeg0_8_9_ac3_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2012_2788_ffmpeg0_7_9_avi_read_packet</t>
-  </si>
-  <si>
-    <t>CVE_2012_2786_ffmpeg0_9_4_decode_wdlt</t>
-  </si>
-  <si>
-    <t>CVE_2012_2783_ffmpeg0_8_3_ff_vp56_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2012_2776_ffmpeg0_10_9_decode_cell_data</t>
-  </si>
-  <si>
-    <t>CVE_2012_2774_ffmpeg0_10_16_MPV_frame_start</t>
-  </si>
-  <si>
-    <t>CVE_2012_0850_ffmpeg0_6_5_sbr_qmf_synthesis</t>
-  </si>
-  <si>
-    <t>CVE_2011_4579_ffmpeg0_6_3_svq1_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2011_3941_ffmpeg0_8_9_decode_mb</t>
+    <t>CVE_2015_3395_ffmpeg0.9.4_msrle_decode_pal4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE_2015_3395_ffmpeg0.6.7_msrle_decode_pal4</t>
+  </si>
+  <si>
+    <t>CVE_2014_9676_ffmpeg1.0.9_seg_write_packet</t>
+  </si>
+  <si>
+    <t>CVE_2014_8544_ffmpeg1.1.9_tiff_decode_tag</t>
+  </si>
+  <si>
+    <t>CVE_2014_8542_ffmpeg1.0.9_avcodec_align_dimensions2</t>
+  </si>
+  <si>
+    <t>CVE_2014_8542_ffmpeg0.8.15_avcodec_align_dimensions2</t>
+  </si>
+  <si>
+    <t>CVE_2014_8541_ffmpeg2.0.5_ff_mjpeg_decode_sof</t>
+  </si>
+  <si>
+    <t>CVE_2014_8541_ffmpeg1.2.8_ff_mjpeg_decode_sof</t>
+  </si>
+  <si>
+    <t>CVE_2014_8541_ffmpeg1.1.9_ff_mjpeg_decode_sof</t>
+  </si>
+  <si>
+    <t>CVE_2014_5271_ffmpeg1.2.7_encode_slice</t>
+  </si>
+  <si>
+    <t>CVE_2013_7023_ffmpeg1.0.8_ff_combine_frame</t>
+  </si>
+  <si>
+    <t>CVE_2013_7015_ffmpeg1.0.7_flashsv_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2013_7009_ffmpeg0.9.2_rpza_decode_stream</t>
+  </si>
+  <si>
+    <t>CVE_2013_3675_ffmpeg1.1.1_process_frame_obj</t>
+  </si>
+  <si>
+    <t>CVE_2013_3670_ffmpeg0.8.4_rle_unpack</t>
+  </si>
+  <si>
+    <t>CVE_2013_0866_ffmpeg0.9.4_aac_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0866_ffmpeg0.6.7_aac_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0860_ffmpeg0.9.4_ff_er_frame_end</t>
+  </si>
+  <si>
+    <t>CVE_2013_0853_ffmpeg0.9.4_wavpack_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2013_0852_ffmpeg0.9.4_parse_picture_segment</t>
+  </si>
+  <si>
+    <t>CVE_2013_0849_ffmpeg0.6.7_roq_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0848_ffmpeg0.8.15_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0848_ffmpeg0.11.5_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0848_ffmpeg0.10.16_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2012_2803_ffmpeg0.10.9_mpeg_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2012_2802_ffmpeg0.8.9_ac3_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2012_2788_ffmpeg0.7.9_avi_read_packet</t>
+  </si>
+  <si>
+    <t>CVE_2012_2786_ffmpeg0.9.4_decode_wdlt</t>
+  </si>
+  <si>
+    <t>CVE_2012_2783_ffmpeg0.8.3_ff_vp56_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2012_2776_ffmpeg0.10.9_decode_cell_data</t>
+  </si>
+  <si>
+    <t>CVE_2012_2774_ffmpeg0.10.16_MPV_frame_start</t>
+  </si>
+  <si>
+    <t>CVE_2012_0850_ffmpeg0.6.5_sbr_qmf_synthesis</t>
+  </si>
+  <si>
+    <t>CVE_2011_4579_ffmpeg0.6.3_svq1_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2011_3941_ffmpeg0.8.9_decode_mb</t>
+  </si>
+  <si>
+    <t>CVE_2015_3811_wireshark1.12.3_decompressed_entry</t>
+  </si>
+  <si>
+    <t>CVE_2015_3811_wireshark1.10.9_get_wcp_window_ptr</t>
+  </si>
+  <si>
+    <t>CVE_2013_5719_wireshark1.8.9_dissect_r3_cmdmfg_forceoptions</t>
+  </si>
+  <si>
+    <t>CVE_2013_5719_wireshark1.8.9_dissect_r3_upstreammfgfield_checksumresults</t>
+  </si>
+  <si>
+    <t>CVE_2013_5718_wireshark1.8.9_dissect_nbap_T_dCH_ID</t>
+  </si>
+  <si>
+    <t>CVE_2013_4933_wireshark1.8.8_netmon_open</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1.8.8_elem_tlv_e</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1.8.8_elem_tv</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1.8.8_elem_tv_short</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1.8.8_elem_v</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1.8.8_elem_v_short</t>
+  </si>
+  <si>
+    <t>CVE_2013_4076_wireshark1.8.0_dissect_iphc_crtp_fh</t>
+  </si>
+  <si>
+    <t>CVE_2013_1584_wireshark1.6.9_dissect_version_5_and_6_primary_header</t>
+  </si>
+  <si>
+    <t>CVE_2013_1572_wireshark1.6.7_dissect_oampdu_event_notification</t>
+  </si>
+  <si>
+    <t>CVE_2012_6062_wireshark1.6.9_dissect_rtcp_app</t>
+  </si>
+  <si>
+    <t>CVE_2012_6053_wireshark1.6.9_dissect_usb_configuration_descriptor</t>
+  </si>
+  <si>
+    <t>CVE_2012_4289_wireshark1.6.9_dissect_query_afp_set_acl</t>
+  </si>
+  <si>
+    <t>CVE_2012_4289_wireshark1.6.9_proto_register_afp</t>
+  </si>
+  <si>
+    <t>CVE_2012_4285_wireshark1.6.9_dissect_pft</t>
+  </si>
+  <si>
+    <t>CVE_2012_0067_wireshark1.4.9_iptrace_read_1_0</t>
+  </si>
+  <si>
+    <t>CVE_2012_0041_wireshark1.4.9_dissect_packet</t>
+  </si>
+  <si>
+    <t>CVE_2011_4102_wireshark1.4.9_erf_read_header</t>
+  </si>
+  <si>
+    <t>CVE_2011_1139_wireshark1.2.0_pcapng_read_packet_block</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1506,6 +1503,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1541,7 +1544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1852,7 +1855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -4044,7 +4047,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4054,117 +4057,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -4177,8 +4180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4188,172 +4191,172 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/test_pkg/data.xlsx
+++ b/test_pkg/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="6105" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wireshark" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J27"/>
+  <oleSize ref="A25:I44"/>
 </workbook>
 </file>
 
@@ -1313,183 +1313,182 @@
     <t>CVE_2015_3417_VULN_COMPLETE_0</t>
   </si>
   <si>
-    <t>CVE_2015_3395_ffmpeg0.9.4_msrle_decode_pal4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE_2015_3395_ffmpeg0.6.7_msrle_decode_pal4</t>
-  </si>
-  <si>
-    <t>CVE_2014_9676_ffmpeg1.0.9_seg_write_packet</t>
-  </si>
-  <si>
-    <t>CVE_2014_8544_ffmpeg1.1.9_tiff_decode_tag</t>
-  </si>
-  <si>
-    <t>CVE_2014_8542_ffmpeg1.0.9_avcodec_align_dimensions2</t>
-  </si>
-  <si>
-    <t>CVE_2014_8542_ffmpeg0.8.15_avcodec_align_dimensions2</t>
-  </si>
-  <si>
-    <t>CVE_2014_8541_ffmpeg2.0.5_ff_mjpeg_decode_sof</t>
-  </si>
-  <si>
-    <t>CVE_2014_8541_ffmpeg1.2.8_ff_mjpeg_decode_sof</t>
-  </si>
-  <si>
-    <t>CVE_2014_8541_ffmpeg1.1.9_ff_mjpeg_decode_sof</t>
-  </si>
-  <si>
-    <t>CVE_2014_5271_ffmpeg1.2.7_encode_slice</t>
-  </si>
-  <si>
-    <t>CVE_2013_7023_ffmpeg1.0.8_ff_combine_frame</t>
-  </si>
-  <si>
-    <t>CVE_2013_7015_ffmpeg1.0.7_flashsv_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2013_7009_ffmpeg0.9.2_rpza_decode_stream</t>
-  </si>
-  <si>
-    <t>CVE_2013_3675_ffmpeg1.1.1_process_frame_obj</t>
-  </si>
-  <si>
-    <t>CVE_2013_3670_ffmpeg0.8.4_rle_unpack</t>
-  </si>
-  <si>
-    <t>CVE_2013_0866_ffmpeg0.9.4_aac_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0866_ffmpeg0.6.7_aac_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0860_ffmpeg0.9.4_ff_er_frame_end</t>
-  </si>
-  <si>
-    <t>CVE_2013_0853_ffmpeg0.9.4_wavpack_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2013_0852_ffmpeg0.9.4_parse_picture_segment</t>
-  </si>
-  <si>
-    <t>CVE_2013_0849_ffmpeg0.6.7_roq_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0848_ffmpeg0.8.15_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0848_ffmpeg0.11.5_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0848_ffmpeg0.10.16_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2012_2803_ffmpeg0.10.9_mpeg_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2012_2802_ffmpeg0.8.9_ac3_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2012_2788_ffmpeg0.7.9_avi_read_packet</t>
-  </si>
-  <si>
-    <t>CVE_2012_2786_ffmpeg0.9.4_decode_wdlt</t>
-  </si>
-  <si>
-    <t>CVE_2012_2783_ffmpeg0.8.3_ff_vp56_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2012_2776_ffmpeg0.10.9_decode_cell_data</t>
-  </si>
-  <si>
-    <t>CVE_2012_2774_ffmpeg0.10.16_MPV_frame_start</t>
-  </si>
-  <si>
-    <t>CVE_2012_0850_ffmpeg0.6.5_sbr_qmf_synthesis</t>
-  </si>
-  <si>
-    <t>CVE_2011_4579_ffmpeg0.6.3_svq1_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2011_3941_ffmpeg0.8.9_decode_mb</t>
-  </si>
-  <si>
-    <t>CVE_2015_3811_wireshark1.12.3_decompressed_entry</t>
-  </si>
-  <si>
-    <t>CVE_2015_3811_wireshark1.10.9_get_wcp_window_ptr</t>
-  </si>
-  <si>
-    <t>CVE_2013_5719_wireshark1.8.9_dissect_r3_cmdmfg_forceoptions</t>
-  </si>
-  <si>
-    <t>CVE_2013_5719_wireshark1.8.9_dissect_r3_upstreammfgfield_checksumresults</t>
-  </si>
-  <si>
-    <t>CVE_2013_5718_wireshark1.8.9_dissect_nbap_T_dCH_ID</t>
-  </si>
-  <si>
-    <t>CVE_2013_4933_wireshark1.8.8_netmon_open</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_tlv_e</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_tv</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_tv_short</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_v</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_v_short</t>
-  </si>
-  <si>
-    <t>CVE_2013_4076_wireshark1.8.0_dissect_iphc_crtp_fh</t>
-  </si>
-  <si>
-    <t>CVE_2013_1584_wireshark1.6.9_dissect_version_5_and_6_primary_header</t>
-  </si>
-  <si>
-    <t>CVE_2013_1572_wireshark1.6.7_dissect_oampdu_event_notification</t>
-  </si>
-  <si>
-    <t>CVE_2012_6062_wireshark1.6.9_dissect_rtcp_app</t>
-  </si>
-  <si>
-    <t>CVE_2012_6053_wireshark1.6.9_dissect_usb_configuration_descriptor</t>
-  </si>
-  <si>
-    <t>CVE_2012_4289_wireshark1.6.9_dissect_query_afp_set_acl</t>
-  </si>
-  <si>
-    <t>CVE_2012_4289_wireshark1.6.9_proto_register_afp</t>
-  </si>
-  <si>
-    <t>CVE_2012_4285_wireshark1.6.9_dissect_pft</t>
-  </si>
-  <si>
-    <t>CVE_2012_0067_wireshark1.4.9_iptrace_read_1_0</t>
-  </si>
-  <si>
-    <t>CVE_2012_0041_wireshark1.4.9_dissect_packet</t>
-  </si>
-  <si>
-    <t>CVE_2011_4102_wireshark1.4.9_erf_read_header</t>
-  </si>
-  <si>
-    <t>CVE_2011_1139_wireshark1.2.0_pcapng_read_packet_block</t>
+    <t>CVE_2015_3811_wireshark1_12_3_decompressed_entry</t>
+  </si>
+  <si>
+    <t>CVE_2015_3811_wireshark1_10_9_get_wcp_window_ptr</t>
+  </si>
+  <si>
+    <t>CVE_2013_5719_wireshark1_8_9_dissect_r3_cmdmfg_forceoptions</t>
+  </si>
+  <si>
+    <t>CVE_2013_5719_wireshark1_8_9_dissect_r3_upstreammfgfield_checksumresults</t>
+  </si>
+  <si>
+    <t>CVE_2013_5718_wireshark1_8_9_dissect_nbap_T_dCH_ID</t>
+  </si>
+  <si>
+    <t>CVE_2013_4933_wireshark1_8_8_netmon_open</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_tlv_e</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_tv</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_tv_short</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_v</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_v_short</t>
+  </si>
+  <si>
+    <t>CVE_2013_4076_wireshark1_8_0_dissect_iphc_crtp_fh</t>
+  </si>
+  <si>
+    <t>CVE_2013_1584_wireshark1_6_9_dissect_version_5_and_6_primary_header</t>
+  </si>
+  <si>
+    <t>CVE_2013_1572_wireshark1_6_7_dissect_oampdu_event_notification</t>
+  </si>
+  <si>
+    <t>CVE_2012_6062_wireshark1_6_9_dissect_rtcp_app</t>
+  </si>
+  <si>
+    <t>CVE_2012_6053_wireshark1_6_9_dissect_usb_configuration_descriptor</t>
+  </si>
+  <si>
+    <t>CVE_2012_4289_wireshark1_6_9_dissect_query_afp_set_acl</t>
+  </si>
+  <si>
+    <t>CVE_2012_4289_wireshark1_6_9_proto_register_afp</t>
+  </si>
+  <si>
+    <t>CVE_2012_4285_wireshark1_6_9_dissect_pft</t>
+  </si>
+  <si>
+    <t>CVE_2012_0067_wireshark1_4_9_iptrace_read_1_0</t>
+  </si>
+  <si>
+    <t>CVE_2012_0041_wireshark1_4_9_dissect_packet</t>
+  </si>
+  <si>
+    <t>CVE_2011_4102_wireshark1_4_9_erf_read_header</t>
+  </si>
+  <si>
+    <t>CVE_2011_1139_wireshark1_2_0_pcapng_read_packet_block</t>
+  </si>
+  <si>
+    <t>CVE_2015_3395_ffmpeg0_9_4_msrle_decode_pal4</t>
+  </si>
+  <si>
+    <t>CVE_2015_3395_ffmpeg0_6_7_msrle_decode_pal4</t>
+  </si>
+  <si>
+    <t>CVE_2014_9676_ffmpeg1_0_9_seg_write_packet</t>
+  </si>
+  <si>
+    <t>CVE_2014_8544_ffmpeg1_1_9_tiff_decode_tag</t>
+  </si>
+  <si>
+    <t>CVE_2014_8542_ffmpeg1_0_9_avcodec_align_dimensions2</t>
+  </si>
+  <si>
+    <t>CVE_2014_8542_ffmpeg0_8_15_avcodec_align_dimensions2</t>
+  </si>
+  <si>
+    <t>CVE_2014_8541_ffmpeg2_0_5_ff_mjpeg_decode_sof</t>
+  </si>
+  <si>
+    <t>CVE_2014_8541_ffmpeg1_2_8_ff_mjpeg_decode_sof</t>
+  </si>
+  <si>
+    <t>CVE_2014_8541_ffmpeg1_1_9_ff_mjpeg_decode_sof</t>
+  </si>
+  <si>
+    <t>CVE_2014_5271_ffmpeg1_2_7_encode_slice</t>
+  </si>
+  <si>
+    <t>CVE_2013_7023_ffmpeg1_0_8_ff_combine_frame</t>
+  </si>
+  <si>
+    <t>CVE_2013_7015_ffmpeg1_0_7_flashsv_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2013_7009_ffmpeg0_9_2_rpza_decode_stream</t>
+  </si>
+  <si>
+    <t>CVE_2013_3675_ffmpeg1_1_1_process_frame_obj</t>
+  </si>
+  <si>
+    <t>CVE_2013_3670_ffmpeg0_8_4_rle_unpack</t>
+  </si>
+  <si>
+    <t>CVE_2013_0866_ffmpeg0_9_4_aac_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0866_ffmpeg0_6_7_aac_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0860_ffmpeg0_9_4_ff_er_frame_end</t>
+  </si>
+  <si>
+    <t>CVE_2013_0853_ffmpeg0_9_4_wavpack_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2013_0852_ffmpeg0_9_4_parse_picture_segment</t>
+  </si>
+  <si>
+    <t>CVE_2013_0849_ffmpeg0_6_7_roq_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0848_ffmpeg0_8_15_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0848_ffmpeg0_11_5_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0848_ffmpeg0_10_16_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2012_2803_ffmpeg0_10_9_mpeg_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2012_2802_ffmpeg0_8_9_ac3_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2012_2788_ffmpeg0_7_9_avi_read_packet</t>
+  </si>
+  <si>
+    <t>CVE_2012_2786_ffmpeg0_9_4_decode_wdlt</t>
+  </si>
+  <si>
+    <t>CVE_2012_2783_ffmpeg0_8_3_ff_vp56_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2012_2776_ffmpeg0_10_9_decode_cell_data</t>
+  </si>
+  <si>
+    <t>CVE_2012_2774_ffmpeg0_10_16_MPV_frame_start</t>
+  </si>
+  <si>
+    <t>CVE_2012_0850_ffmpeg0_6_5_sbr_qmf_synthesis</t>
+  </si>
+  <si>
+    <t>CVE_2011_4579_ffmpeg0_6_3_svq1_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2011_3941_ffmpeg0_8_9_decode_mb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1503,12 +1502,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1544,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1855,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -3175,7 +3168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A159" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4047,7 +4040,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4057,117 +4050,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -4180,8 +4173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4191,172 +4184,172 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/test_pkg/data.xlsx
+++ b/test_pkg/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wireshark" sheetId="1" r:id="rId1"/>
@@ -1317,178 +1317,6 @@
     <t>CVE_2015_3417_VULN_COMPLETE_0</t>
   </si>
   <si>
-    <t>CVE_2015_3395_ffmpeg0.9.4_msrle_decode_pal4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE_2015_3395_ffmpeg0.6.7_msrle_decode_pal4</t>
-  </si>
-  <si>
-    <t>CVE_2014_9676_ffmpeg1.0.9_seg_write_packet</t>
-  </si>
-  <si>
-    <t>CVE_2014_8544_ffmpeg1.1.9_tiff_decode_tag</t>
-  </si>
-  <si>
-    <t>CVE_2014_8542_ffmpeg1.0.9_avcodec_align_dimensions2</t>
-  </si>
-  <si>
-    <t>CVE_2014_8542_ffmpeg0.8.15_avcodec_align_dimensions2</t>
-  </si>
-  <si>
-    <t>CVE_2014_8541_ffmpeg2.0.5_ff_mjpeg_decode_sof</t>
-  </si>
-  <si>
-    <t>CVE_2014_8541_ffmpeg1.2.8_ff_mjpeg_decode_sof</t>
-  </si>
-  <si>
-    <t>CVE_2014_8541_ffmpeg1.1.9_ff_mjpeg_decode_sof</t>
-  </si>
-  <si>
-    <t>CVE_2014_5271_ffmpeg1.2.7_encode_slice</t>
-  </si>
-  <si>
-    <t>CVE_2013_7023_ffmpeg1.0.8_ff_combine_frame</t>
-  </si>
-  <si>
-    <t>CVE_2013_7015_ffmpeg1.0.7_flashsv_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2013_7009_ffmpeg0.9.2_rpza_decode_stream</t>
-  </si>
-  <si>
-    <t>CVE_2013_3675_ffmpeg1.1.1_process_frame_obj</t>
-  </si>
-  <si>
-    <t>CVE_2013_3670_ffmpeg0.8.4_rle_unpack</t>
-  </si>
-  <si>
-    <t>CVE_2013_0866_ffmpeg0.9.4_aac_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0866_ffmpeg0.6.7_aac_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0860_ffmpeg0.9.4_ff_er_frame_end</t>
-  </si>
-  <si>
-    <t>CVE_2013_0853_ffmpeg0.9.4_wavpack_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2013_0852_ffmpeg0.9.4_parse_picture_segment</t>
-  </si>
-  <si>
-    <t>CVE_2013_0849_ffmpeg0.6.7_roq_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0848_ffmpeg0.8.15_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0848_ffmpeg0.11.5_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2013_0848_ffmpeg0.10.16_decode_init</t>
-  </si>
-  <si>
-    <t>CVE_2012_2803_ffmpeg0.10.9_mpeg_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2012_2802_ffmpeg0.8.9_ac3_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2012_2788_ffmpeg0.7.9_avi_read_packet</t>
-  </si>
-  <si>
-    <t>CVE_2012_2786_ffmpeg0.9.4_decode_wdlt</t>
-  </si>
-  <si>
-    <t>CVE_2012_2783_ffmpeg0.8.3_ff_vp56_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2012_2776_ffmpeg0.10.9_decode_cell_data</t>
-  </si>
-  <si>
-    <t>CVE_2012_2774_ffmpeg0.10.16_MPV_frame_start</t>
-  </si>
-  <si>
-    <t>CVE_2012_0850_ffmpeg0.6.5_sbr_qmf_synthesis</t>
-  </si>
-  <si>
-    <t>CVE_2011_4579_ffmpeg0.6.3_svq1_decode_frame</t>
-  </si>
-  <si>
-    <t>CVE_2011_3941_ffmpeg0.8.9_decode_mb</t>
-  </si>
-  <si>
-    <t>CVE_2015_3811_wireshark1.12.3_decompressed_entry</t>
-  </si>
-  <si>
-    <t>CVE_2015_3811_wireshark1.10.9_get_wcp_window_ptr</t>
-  </si>
-  <si>
-    <t>CVE_2013_5719_wireshark1.8.9_dissect_r3_cmdmfg_forceoptions</t>
-  </si>
-  <si>
-    <t>CVE_2013_5719_wireshark1.8.9_dissect_r3_upstreammfgfield_checksumresults</t>
-  </si>
-  <si>
-    <t>CVE_2013_5718_wireshark1.8.9_dissect_nbap_T_dCH_ID</t>
-  </si>
-  <si>
-    <t>CVE_2013_4933_wireshark1.8.8_netmon_open</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_tlv_e</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_tv</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_tv_short</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_v</t>
-  </si>
-  <si>
-    <t>CVE_2013_4932_wireshark1.8.8_elem_v_short</t>
-  </si>
-  <si>
-    <t>CVE_2013_4076_wireshark1.8.0_dissect_iphc_crtp_fh</t>
-  </si>
-  <si>
-    <t>CVE_2013_1584_wireshark1.6.9_dissect_version_5_and_6_primary_header</t>
-  </si>
-  <si>
-    <t>CVE_2013_1572_wireshark1.6.7_dissect_oampdu_event_notification</t>
-  </si>
-  <si>
-    <t>CVE_2012_6062_wireshark1.6.9_dissect_rtcp_app</t>
-  </si>
-  <si>
-    <t>CVE_2012_6053_wireshark1.6.9_dissect_usb_configuration_descriptor</t>
-  </si>
-  <si>
-    <t>CVE_2012_4289_wireshark1.6.9_dissect_query_afp_set_acl</t>
-  </si>
-  <si>
-    <t>CVE_2012_4289_wireshark1.6.9_proto_register_afp</t>
-  </si>
-  <si>
-    <t>CVE_2012_4285_wireshark1.6.9_dissect_pft</t>
-  </si>
-  <si>
-    <t>CVE_2012_0067_wireshark1.4.9_iptrace_read_1_0</t>
-  </si>
-  <si>
-    <t>CVE_2012_0041_wireshark1.4.9_dissect_packet</t>
-  </si>
-  <si>
-    <t>CVE_2011_4102_wireshark1.4.9_erf_read_header</t>
-  </si>
-  <si>
-    <t>CVE_2011_1139_wireshark1.2.0_pcapng_read_packet_block</t>
-  </si>
-  <si>
     <t>ff_h264_free_tables</t>
   </si>
   <si>
@@ -2369,13 +2197,184 @@
   </si>
   <si>
     <t>daintree_sna_seek_read</t>
+  </si>
+  <si>
+    <t>CVE_2015_3811_wireshark1_12_3_decompressed_entry</t>
+  </si>
+  <si>
+    <t>CVE_2015_3811_wireshark1_10_9_get_wcp_window_ptr</t>
+  </si>
+  <si>
+    <t>CVE_2013_5719_wireshark1_8_9_dissect_r3_cmdmfg_forceoptions</t>
+  </si>
+  <si>
+    <t>CVE_2013_5719_wireshark1_8_9_dissect_r3_upstreammfgfield_checksumresults</t>
+  </si>
+  <si>
+    <t>CVE_2013_5718_wireshark1_8_9_dissect_nbap_T_dCH_ID</t>
+  </si>
+  <si>
+    <t>CVE_2013_4933_wireshark1_8_8_netmon_open</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_tlv_e</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_tv</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_tv_short</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_v</t>
+  </si>
+  <si>
+    <t>CVE_2013_4932_wireshark1_8_8_elem_v_short</t>
+  </si>
+  <si>
+    <t>CVE_2013_4076_wireshark1_8_0_dissect_iphc_crtp_fh</t>
+  </si>
+  <si>
+    <t>CVE_2013_1584_wireshark1_6_9_dissect_version_5_and_6_primary_header</t>
+  </si>
+  <si>
+    <t>CVE_2013_1572_wireshark1_6_7_dissect_oampdu_event_notification</t>
+  </si>
+  <si>
+    <t>CVE_2012_6062_wireshark1_6_9_dissect_rtcp_app</t>
+  </si>
+  <si>
+    <t>CVE_2012_6053_wireshark1_6_9_dissect_usb_configuration_descriptor</t>
+  </si>
+  <si>
+    <t>CVE_2012_4289_wireshark1_6_9_dissect_query_afp_set_acl</t>
+  </si>
+  <si>
+    <t>CVE_2012_4289_wireshark1_6_9_proto_register_afp</t>
+  </si>
+  <si>
+    <t>CVE_2012_4285_wireshark1_6_9_dissect_pft</t>
+  </si>
+  <si>
+    <t>CVE_2012_0067_wireshark1_4_9_iptrace_read_1_0</t>
+  </si>
+  <si>
+    <t>CVE_2012_0041_wireshark1_4_9_dissect_packet</t>
+  </si>
+  <si>
+    <t>CVE_2011_4102_wireshark1_4_9_erf_read_header</t>
+  </si>
+  <si>
+    <t>CVE_2011_1139_wireshark1_2_0_pcapng_read_packet_block</t>
+  </si>
+  <si>
+    <t>CVE_2015_3395_ffmpeg0_9_4_msrle_decode_pal4</t>
+  </si>
+  <si>
+    <t>CVE_2015_3395_ffmpeg0_6_7_msrle_decode_pal4</t>
+  </si>
+  <si>
+    <t>CVE_2014_9676_ffmpeg1_0_9_seg_write_packet</t>
+  </si>
+  <si>
+    <t>CVE_2014_8544_ffmpeg1_1_9_tiff_decode_tag</t>
+  </si>
+  <si>
+    <t>CVE_2014_8542_ffmpeg1_0_9_avcodec_align_dimensions2</t>
+  </si>
+  <si>
+    <t>CVE_2014_8542_ffmpeg0_8_15_avcodec_align_dimensions2</t>
+  </si>
+  <si>
+    <t>CVE_2014_8541_ffmpeg2_0_5_ff_mjpeg_decode_sof</t>
+  </si>
+  <si>
+    <t>CVE_2014_8541_ffmpeg1_2_8_ff_mjpeg_decode_sof</t>
+  </si>
+  <si>
+    <t>CVE_2014_8541_ffmpeg1_1_9_ff_mjpeg_decode_sof</t>
+  </si>
+  <si>
+    <t>CVE_2014_5271_ffmpeg1_2_7_encode_slice</t>
+  </si>
+  <si>
+    <t>CVE_2013_7023_ffmpeg1_0_8_ff_combine_frame</t>
+  </si>
+  <si>
+    <t>CVE_2013_7015_ffmpeg1_0_7_flashsv_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2013_7009_ffmpeg0_9_2_rpza_decode_stream</t>
+  </si>
+  <si>
+    <t>CVE_2013_3675_ffmpeg1_1_1_process_frame_obj</t>
+  </si>
+  <si>
+    <t>CVE_2013_3670_ffmpeg0_8_4_rle_unpack</t>
+  </si>
+  <si>
+    <t>CVE_2013_0866_ffmpeg0_9_4_aac_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0866_ffmpeg0_6_7_aac_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0860_ffmpeg0_9_4_ff_er_frame_end</t>
+  </si>
+  <si>
+    <t>CVE_2013_0853_ffmpeg0_9_4_wavpack_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2013_0852_ffmpeg0_9_4_parse_picture_segment</t>
+  </si>
+  <si>
+    <t>CVE_2013_0849_ffmpeg0_6_7_roq_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0848_ffmpeg0_8_15_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0848_ffmpeg0_11_5_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2013_0848_ffmpeg0_10_16_decode_init</t>
+  </si>
+  <si>
+    <t>CVE_2012_2803_ffmpeg0_10_9_mpeg_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2012_2802_ffmpeg0_8_9_ac3_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2012_2788_ffmpeg0_7_9_avi_read_packet</t>
+  </si>
+  <si>
+    <t>CVE_2012_2786_ffmpeg0_9_4_decode_wdlt</t>
+  </si>
+  <si>
+    <t>CVE_2012_2783_ffmpeg0_8_3_ff_vp56_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2012_2776_ffmpeg0_10_9_decode_cell_data</t>
+  </si>
+  <si>
+    <t>CVE_2012_2774_ffmpeg0_10_16_MPV_frame_start</t>
+  </si>
+  <si>
+    <t>CVE_2012_0850_ffmpeg0_6_5_sbr_qmf_synthesis</t>
+  </si>
+  <si>
+    <t>CVE_2011_4579_ffmpeg0_6_3_svq1_decode_frame</t>
+  </si>
+  <si>
+    <t>CVE_2011_3941_ffmpeg0_8_9_decode_mb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2389,12 +2388,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2430,14 +2423,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2742,7 +2735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+    <sheetView topLeftCell="A280" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2757,7 +2750,7 @@
         <v>257</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2765,7 +2758,7 @@
         <v>258</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2773,7 +2766,7 @@
         <v>259</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2781,7 +2774,7 @@
         <v>255</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>600</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2789,7 +2782,7 @@
         <v>256</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>600</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2797,7 +2790,7 @@
         <v>254</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2805,7 +2798,7 @@
         <v>252</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>602</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2813,7 +2806,7 @@
         <v>253</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2821,7 +2814,7 @@
         <v>251</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>604</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2829,7 +2822,7 @@
         <v>250</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2837,7 +2830,7 @@
         <v>246</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2845,7 +2838,7 @@
         <v>247</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2853,7 +2846,7 @@
         <v>248</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2861,7 +2854,7 @@
         <v>249</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2869,7 +2862,7 @@
         <v>244</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2877,7 +2870,7 @@
         <v>245</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2885,7 +2878,7 @@
         <v>243</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2893,7 +2886,7 @@
         <v>242</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2901,7 +2894,7 @@
         <v>237</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2909,7 +2902,7 @@
         <v>238</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2917,7 +2910,7 @@
         <v>239</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2925,7 +2918,7 @@
         <v>240</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>613</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2933,7 +2926,7 @@
         <v>241</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>613</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2941,7 +2934,7 @@
         <v>235</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>614</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2949,7 +2942,7 @@
         <v>236</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>614</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2957,7 +2950,7 @@
         <v>233</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>614</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2965,7 +2958,7 @@
         <v>234</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>614</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2973,7 +2966,7 @@
         <v>232</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>615</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2981,7 +2974,7 @@
         <v>231</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>616</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2989,7 +2982,7 @@
         <v>230</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>617</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2997,7 +2990,7 @@
         <v>228</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>618</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3005,7 +2998,7 @@
         <v>229</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>619</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3013,7 +3006,7 @@
         <v>226</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>620</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3021,7 +3014,7 @@
         <v>227</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>620</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3029,7 +3022,7 @@
         <v>225</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>621</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3037,7 +3030,7 @@
         <v>224</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>621</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3045,7 +3038,7 @@
         <v>219</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3053,7 +3046,7 @@
         <v>220</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3061,7 +3054,7 @@
         <v>221</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3069,7 +3062,7 @@
         <v>222</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3077,7 +3070,7 @@
         <v>223</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3085,7 +3078,7 @@
         <v>214</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3093,7 +3086,7 @@
         <v>215</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3101,7 +3094,7 @@
         <v>216</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3109,7 +3102,7 @@
         <v>217</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3117,7 +3110,7 @@
         <v>218</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3125,7 +3118,7 @@
         <v>209</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3133,7 +3126,7 @@
         <v>210</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3141,7 +3134,7 @@
         <v>211</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3149,7 +3142,7 @@
         <v>212</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3157,7 +3150,7 @@
         <v>213</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3165,7 +3158,7 @@
         <v>204</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3173,7 +3166,7 @@
         <v>205</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3181,7 +3174,7 @@
         <v>206</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3189,7 +3182,7 @@
         <v>207</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3197,7 +3190,7 @@
         <v>208</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3205,7 +3198,7 @@
         <v>203</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>623</v>
+        <v>566</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3213,7 +3206,7 @@
         <v>201</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>624</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3221,7 +3214,7 @@
         <v>202</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>624</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3229,7 +3222,7 @@
         <v>200</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>625</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3237,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3245,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>627</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3253,7 +3246,7 @@
         <v>199</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>628</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3261,7 +3254,7 @@
         <v>198</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>629</v>
+        <v>572</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3269,7 +3262,7 @@
         <v>196</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>630</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3277,7 +3270,7 @@
         <v>197</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>631</v>
+        <v>574</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3285,7 +3278,7 @@
         <v>195</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>632</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3293,87 +3286,87 @@
         <v>194</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>633</v>
+        <v>576</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>634</v>
+        <v>577</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>635</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>636</v>
+        <v>579</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>637</v>
+        <v>580</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>638</v>
+        <v>581</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>639</v>
+        <v>582</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>640</v>
+        <v>583</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>641</v>
+        <v>584</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>642</v>
+        <v>585</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>643</v>
+        <v>586</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>646</v>
+        <v>589</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>647</v>
+        <v>590</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>648</v>
+        <v>591</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>649</v>
+        <v>592</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3381,7 +3374,7 @@
         <v>193</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>650</v>
+        <v>593</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3389,15 +3382,15 @@
         <v>192</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>651</v>
+        <v>594</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>652</v>
+        <v>595</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>653</v>
+        <v>596</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3405,7 +3398,7 @@
         <v>190</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>654</v>
+        <v>597</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3413,7 +3406,7 @@
         <v>191</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>654</v>
+        <v>597</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3421,7 +3414,7 @@
         <v>182</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>655</v>
+        <v>598</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3429,7 +3422,7 @@
         <v>183</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>655</v>
+        <v>598</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3437,7 +3430,7 @@
         <v>184</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>655</v>
+        <v>598</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3445,7 +3438,7 @@
         <v>185</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>656</v>
+        <v>599</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3453,7 +3446,7 @@
         <v>186</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>656</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3461,7 +3454,7 @@
         <v>187</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>657</v>
+        <v>600</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3469,7 +3462,7 @@
         <v>188</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>657</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3477,7 +3470,7 @@
         <v>189</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>657</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3485,7 +3478,7 @@
         <v>181</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>658</v>
+        <v>601</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3493,7 +3486,7 @@
         <v>180</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>659</v>
+        <v>602</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3501,31 +3494,31 @@
         <v>179</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>660</v>
+        <v>603</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>661</v>
+        <v>604</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>662</v>
+        <v>605</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>663</v>
+        <v>606</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>662</v>
+        <v>605</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>664</v>
+        <v>607</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>662</v>
+        <v>605</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3533,7 +3526,7 @@
         <v>178</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>665</v>
+        <v>608</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3541,7 +3534,7 @@
         <v>177</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>665</v>
+        <v>608</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3549,7 +3542,7 @@
         <v>159</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3557,7 +3550,7 @@
         <v>160</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>667</v>
+        <v>610</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3565,7 +3558,7 @@
         <v>169</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3573,7 +3566,7 @@
         <v>170</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>668</v>
+        <v>611</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3581,7 +3574,7 @@
         <v>171</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3589,7 +3582,7 @@
         <v>172</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>669</v>
+        <v>612</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3597,7 +3590,7 @@
         <v>173</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3605,7 +3598,7 @@
         <v>174</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>670</v>
+        <v>613</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3613,7 +3606,7 @@
         <v>175</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>671</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3621,7 +3614,7 @@
         <v>176</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>671</v>
+        <v>614</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3629,7 +3622,7 @@
         <v>161</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3637,7 +3630,7 @@
         <v>162</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>672</v>
+        <v>615</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3645,7 +3638,7 @@
         <v>163</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3653,7 +3646,7 @@
         <v>164</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>673</v>
+        <v>616</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3661,7 +3654,7 @@
         <v>165</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3669,7 +3662,7 @@
         <v>166</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3677,7 +3670,7 @@
         <v>167</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3685,23 +3678,23 @@
         <v>168</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>674</v>
+        <v>617</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>675</v>
+        <v>618</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>676</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>677</v>
+        <v>620</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>678</v>
+        <v>621</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3709,7 +3702,7 @@
         <v>158</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>679</v>
+        <v>622</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3717,7 +3710,7 @@
         <v>153</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>680</v>
+        <v>623</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3725,7 +3718,7 @@
         <v>154</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>680</v>
+        <v>623</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3733,7 +3726,7 @@
         <v>155</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>680</v>
+        <v>623</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3741,7 +3734,7 @@
         <v>156</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>680</v>
+        <v>623</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3749,7 +3742,7 @@
         <v>157</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>680</v>
+        <v>623</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3757,7 +3750,7 @@
         <v>151</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>681</v>
+        <v>624</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3765,7 +3758,7 @@
         <v>152</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>681</v>
+        <v>624</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3773,7 +3766,7 @@
         <v>150</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>682</v>
+        <v>625</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3781,7 +3774,7 @@
         <v>147</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>683</v>
+        <v>626</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3789,7 +3782,7 @@
         <v>148</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>684</v>
+        <v>627</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3797,7 +3790,7 @@
         <v>149</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>685</v>
+        <v>628</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3805,7 +3798,7 @@
         <v>145</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>686</v>
+        <v>629</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3813,7 +3806,7 @@
         <v>146</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>686</v>
+        <v>629</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3821,7 +3814,7 @@
         <v>143</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>686</v>
+        <v>629</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3829,7 +3822,7 @@
         <v>144</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>686</v>
+        <v>629</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3837,15 +3830,15 @@
         <v>142</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>687</v>
+        <v>630</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>688</v>
+        <v>631</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>689</v>
+        <v>632</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3853,7 +3846,7 @@
         <v>141</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>690</v>
+        <v>633</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3861,7 +3854,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>691</v>
+        <v>634</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3869,7 +3862,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>691</v>
+        <v>634</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3877,7 +3870,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>691</v>
+        <v>634</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3885,7 +3878,7 @@
         <v>135</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>692</v>
+        <v>635</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3893,7 +3886,7 @@
         <v>136</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>692</v>
+        <v>635</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3901,7 +3894,7 @@
         <v>137</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>692</v>
+        <v>635</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3909,7 +3902,7 @@
         <v>133</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>693</v>
+        <v>636</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3917,7 +3910,7 @@
         <v>134</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>693</v>
+        <v>636</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3925,15 +3918,15 @@
         <v>132</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>694</v>
+        <v>637</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>695</v>
+        <v>638</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>696</v>
+        <v>639</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3941,7 +3934,7 @@
         <v>131</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>697</v>
+        <v>640</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3949,7 +3942,7 @@
         <v>129</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>698</v>
+        <v>641</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3957,7 +3950,7 @@
         <v>130</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>698</v>
+        <v>641</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3965,7 +3958,7 @@
         <v>128</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3973,7 +3966,7 @@
         <v>127</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>700</v>
+        <v>643</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3981,7 +3974,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>701</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3989,7 +3982,7 @@
         <v>125</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>702</v>
+        <v>645</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3997,7 +3990,7 @@
         <v>123</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>703</v>
+        <v>646</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4005,7 +3998,7 @@
         <v>124</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>703</v>
+        <v>646</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4013,7 +4006,7 @@
         <v>122</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>704</v>
+        <v>647</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4021,7 +4014,7 @@
         <v>121</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>698</v>
+        <v>641</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4029,7 +4022,7 @@
         <v>120</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>705</v>
+        <v>648</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4037,7 +4030,7 @@
         <v>118</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>706</v>
+        <v>649</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4045,7 +4038,7 @@
         <v>119</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>706</v>
+        <v>649</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4053,7 +4046,7 @@
         <v>116</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>707</v>
+        <v>650</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4061,7 +4054,7 @@
         <v>117</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>707</v>
+        <v>650</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4069,7 +4062,7 @@
         <v>115</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>708</v>
+        <v>651</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4077,7 +4070,7 @@
         <v>114</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>709</v>
+        <v>652</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4085,7 +4078,7 @@
         <v>112</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>698</v>
+        <v>641</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4093,7 +4086,7 @@
         <v>113</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>698</v>
+        <v>641</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4101,7 +4094,7 @@
         <v>111</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>710</v>
+        <v>653</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4109,7 +4102,7 @@
         <v>110</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>711</v>
+        <v>654</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4117,7 +4110,7 @@
         <v>109</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>712</v>
+        <v>655</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4125,7 +4118,7 @@
         <v>108</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>713</v>
+        <v>656</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4133,7 +4126,7 @@
         <v>103</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>714</v>
+        <v>657</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4141,7 +4134,7 @@
         <v>104</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>714</v>
+        <v>657</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4149,7 +4142,7 @@
         <v>105</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>714</v>
+        <v>657</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4157,7 +4150,7 @@
         <v>106</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>714</v>
+        <v>657</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4165,7 +4158,7 @@
         <v>107</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>714</v>
+        <v>657</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4173,7 +4166,7 @@
         <v>102</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>715</v>
+        <v>658</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4181,7 +4174,7 @@
         <v>99</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>716</v>
+        <v>659</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4189,7 +4182,7 @@
         <v>100</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>717</v>
+        <v>660</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4197,7 +4190,7 @@
         <v>101</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>717</v>
+        <v>660</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4205,7 +4198,7 @@
         <v>95</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>718</v>
+        <v>661</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4213,7 +4206,7 @@
         <v>96</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>718</v>
+        <v>661</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4221,7 +4214,7 @@
         <v>97</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>718</v>
+        <v>661</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4229,7 +4222,7 @@
         <v>98</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>718</v>
+        <v>661</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4237,7 +4230,7 @@
         <v>94</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>719</v>
+        <v>662</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4245,7 +4238,7 @@
         <v>93</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>720</v>
+        <v>663</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4253,7 +4246,7 @@
         <v>92</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>721</v>
+        <v>664</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4261,7 +4254,7 @@
         <v>91</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>722</v>
+        <v>665</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4269,7 +4262,7 @@
         <v>90</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>723</v>
+        <v>666</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4277,7 +4270,7 @@
         <v>89</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>724</v>
+        <v>667</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4285,7 +4278,7 @@
         <v>86</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4293,7 +4286,7 @@
         <v>87</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4301,7 +4294,7 @@
         <v>88</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>726</v>
+        <v>669</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4309,7 +4302,7 @@
         <v>84</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>727</v>
+        <v>670</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4317,7 +4310,7 @@
         <v>85</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>727</v>
+        <v>670</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4325,7 +4318,7 @@
         <v>81</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>728</v>
+        <v>671</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4333,7 +4326,7 @@
         <v>82</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>728</v>
+        <v>671</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4341,7 +4334,7 @@
         <v>83</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>729</v>
+        <v>672</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4349,7 +4342,7 @@
         <v>80</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>730</v>
+        <v>673</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4357,7 +4350,7 @@
         <v>71</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4365,7 +4358,7 @@
         <v>72</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4373,7 +4366,7 @@
         <v>73</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4381,7 +4374,7 @@
         <v>74</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4389,7 +4382,7 @@
         <v>75</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4397,7 +4390,7 @@
         <v>76</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4405,7 +4398,7 @@
         <v>77</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4413,7 +4406,7 @@
         <v>78</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4421,7 +4414,7 @@
         <v>79</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4429,7 +4422,7 @@
         <v>70</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>732</v>
+        <v>675</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4437,7 +4430,7 @@
         <v>68</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>733</v>
+        <v>676</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4445,7 +4438,7 @@
         <v>69</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>734</v>
+        <v>677</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4453,7 +4446,7 @@
         <v>67</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>735</v>
+        <v>678</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4461,7 +4454,7 @@
         <v>60</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>736</v>
+        <v>679</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4469,7 +4462,7 @@
         <v>61</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>736</v>
+        <v>679</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4477,7 +4470,7 @@
         <v>62</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>736</v>
+        <v>679</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4485,7 +4478,7 @@
         <v>63</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>737</v>
+        <v>680</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4493,7 +4486,7 @@
         <v>64</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>737</v>
+        <v>680</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4501,7 +4494,7 @@
         <v>65</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>738</v>
+        <v>681</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4509,7 +4502,7 @@
         <v>66</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>739</v>
+        <v>682</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4517,7 +4510,7 @@
         <v>56</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>740</v>
+        <v>683</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4525,7 +4518,7 @@
         <v>57</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>740</v>
+        <v>683</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4533,7 +4526,7 @@
         <v>58</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>740</v>
+        <v>683</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4541,7 +4534,7 @@
         <v>59</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>740</v>
+        <v>683</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4549,7 +4542,7 @@
         <v>41</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>741</v>
+        <v>684</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4557,7 +4550,7 @@
         <v>42</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>741</v>
+        <v>684</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4565,7 +4558,7 @@
         <v>48</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>741</v>
+        <v>684</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4573,7 +4566,7 @@
         <v>49</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>741</v>
+        <v>684</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4581,7 +4574,7 @@
         <v>50</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>741</v>
+        <v>684</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4589,7 +4582,7 @@
         <v>51</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>741</v>
+        <v>684</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4597,7 +4590,7 @@
         <v>52</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>742</v>
+        <v>685</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4605,7 +4598,7 @@
         <v>53</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>742</v>
+        <v>685</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4613,7 +4606,7 @@
         <v>54</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>743</v>
+        <v>686</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4621,7 +4614,7 @@
         <v>55</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>743</v>
+        <v>686</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4629,7 +4622,7 @@
         <v>43</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>744</v>
+        <v>687</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4637,7 +4630,7 @@
         <v>44</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>744</v>
+        <v>687</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4645,7 +4638,7 @@
         <v>45</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>745</v>
+        <v>688</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4653,7 +4646,7 @@
         <v>46</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>745</v>
+        <v>688</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4661,31 +4654,31 @@
         <v>47</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>746</v>
+        <v>689</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>747</v>
+        <v>690</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>746</v>
+        <v>689</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
-        <v>748</v>
+        <v>691</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>749</v>
+        <v>692</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
-        <v>750</v>
+        <v>693</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>749</v>
+        <v>692</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4693,7 +4686,7 @@
         <v>40</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>689</v>
+        <v>632</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4701,15 +4694,15 @@
         <v>39</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>751</v>
+        <v>694</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
-        <v>752</v>
+        <v>695</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>751</v>
+        <v>694</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4717,7 +4710,7 @@
         <v>38</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>753</v>
+        <v>696</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4725,7 +4718,7 @@
         <v>35</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>754</v>
+        <v>697</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4733,7 +4726,7 @@
         <v>36</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>755</v>
+        <v>698</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4741,7 +4734,7 @@
         <v>37</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4749,7 +4742,7 @@
         <v>34</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>757</v>
+        <v>700</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4757,7 +4750,7 @@
         <v>28</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>758</v>
+        <v>701</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4765,7 +4758,7 @@
         <v>29</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>759</v>
+        <v>702</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4773,7 +4766,7 @@
         <v>30</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>759</v>
+        <v>702</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4781,7 +4774,7 @@
         <v>31</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>759</v>
+        <v>702</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4789,7 +4782,7 @@
         <v>32</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>759</v>
+        <v>702</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4797,7 +4790,7 @@
         <v>33</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>759</v>
+        <v>702</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4805,7 +4798,7 @@
         <v>24</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>760</v>
+        <v>703</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4813,7 +4806,7 @@
         <v>25</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>761</v>
+        <v>704</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4821,7 +4814,7 @@
         <v>26</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>762</v>
+        <v>705</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4829,15 +4822,15 @@
         <v>27</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>763</v>
+        <v>706</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>764</v>
+        <v>707</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>765</v>
+        <v>708</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4845,7 +4838,7 @@
         <v>23</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>766</v>
+        <v>709</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4853,7 +4846,7 @@
         <v>21</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4861,7 +4854,7 @@
         <v>22</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4869,7 +4862,7 @@
         <v>19</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>768</v>
+        <v>711</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4877,7 +4870,7 @@
         <v>20</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>769</v>
+        <v>712</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4885,7 +4878,7 @@
         <v>18</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>715</v>
+        <v>658</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4893,7 +4886,7 @@
         <v>17</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>770</v>
+        <v>713</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4901,7 +4894,7 @@
         <v>16</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>771</v>
+        <v>714</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4909,7 +4902,7 @@
         <v>15</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>772</v>
+        <v>715</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4917,7 +4910,7 @@
         <v>14</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>773</v>
+        <v>716</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4925,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>774</v>
+        <v>717</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4933,7 +4926,7 @@
         <v>13</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>774</v>
+        <v>717</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4941,7 +4934,7 @@
         <v>9</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>775</v>
+        <v>718</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4949,7 +4942,7 @@
         <v>10</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>775</v>
+        <v>718</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4957,7 +4950,7 @@
         <v>11</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>775</v>
+        <v>718</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4965,7 +4958,7 @@
         <v>7</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>776</v>
+        <v>719</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4973,7 +4966,7 @@
         <v>8</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>777</v>
+        <v>720</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4981,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>778</v>
+        <v>721</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4989,7 +4982,7 @@
         <v>5</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>778</v>
+        <v>721</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4997,7 +4990,7 @@
         <v>6</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>779</v>
+        <v>722</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5005,7 +4998,7 @@
         <v>2</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>780</v>
+        <v>723</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5013,7 +5006,7 @@
         <v>3</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>781</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -5027,7 +5020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5042,7 +5035,7 @@
         <v>430</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>488</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5050,7 +5043,7 @@
         <v>424</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>489</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5058,7 +5051,7 @@
         <v>425</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>489</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5066,7 +5059,7 @@
         <v>426</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>489</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5074,7 +5067,7 @@
         <v>427</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>489</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5082,7 +5075,7 @@
         <v>428</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>489</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5090,7 +5083,7 @@
         <v>429</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>489</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5098,7 +5091,7 @@
         <v>423</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>490</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5106,7 +5099,7 @@
         <v>421</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>491</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5114,7 +5107,7 @@
         <v>422</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>492</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5122,7 +5115,7 @@
         <v>420</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>493</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5130,7 +5123,7 @@
         <v>419</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5138,7 +5131,7 @@
         <v>418</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5146,7 +5139,7 @@
         <v>416</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>496</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5154,7 +5147,7 @@
         <v>417</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>496</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5162,7 +5155,7 @@
         <v>415</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5170,7 +5163,7 @@
         <v>414</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5178,7 +5171,7 @@
         <v>413</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>499</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5186,7 +5179,7 @@
         <v>412</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>500</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5194,7 +5187,7 @@
         <v>410</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>501</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5202,7 +5195,7 @@
         <v>411</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>501</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5210,7 +5203,7 @@
         <v>409</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>502</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5218,7 +5211,7 @@
         <v>408</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5226,7 +5219,7 @@
         <v>404</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5234,7 +5227,7 @@
         <v>405</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5242,7 +5235,7 @@
         <v>406</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5250,7 +5243,7 @@
         <v>407</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5258,7 +5251,7 @@
         <v>400</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>505</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5266,7 +5259,7 @@
         <v>401</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>505</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5274,7 +5267,7 @@
         <v>402</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>505</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5282,7 +5275,7 @@
         <v>403</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>506</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5290,7 +5283,7 @@
         <v>398</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>507</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5298,7 +5291,7 @@
         <v>399</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>507</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5306,7 +5299,7 @@
         <v>397</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>500</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5314,7 +5307,7 @@
         <v>394</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>508</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5322,7 +5315,7 @@
         <v>395</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5330,7 +5323,7 @@
         <v>396</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5338,7 +5331,7 @@
         <v>393</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5346,7 +5339,7 @@
         <v>392</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>511</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5354,7 +5347,7 @@
         <v>390</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>512</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5362,7 +5355,7 @@
         <v>391</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>512</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5370,7 +5363,7 @@
         <v>388</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>513</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5378,7 +5371,7 @@
         <v>389</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>513</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5386,7 +5379,7 @@
         <v>387</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5394,7 +5387,7 @@
         <v>386</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5402,7 +5395,7 @@
         <v>385</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5410,7 +5403,7 @@
         <v>384</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5418,7 +5411,7 @@
         <v>381</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5426,7 +5419,7 @@
         <v>382</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5434,7 +5427,7 @@
         <v>383</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5442,7 +5435,7 @@
         <v>380</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5450,7 +5443,7 @@
         <v>379</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5458,7 +5451,7 @@
         <v>378</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5466,7 +5459,7 @@
         <v>377</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5474,7 +5467,7 @@
         <v>375</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>522</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5482,7 +5475,7 @@
         <v>376</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>522</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5490,7 +5483,7 @@
         <v>373</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>523</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5498,7 +5491,7 @@
         <v>374</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>524</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5506,7 +5499,7 @@
         <v>366</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5514,7 +5507,7 @@
         <v>367</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5522,7 +5515,7 @@
         <v>368</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5530,7 +5523,7 @@
         <v>369</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5538,7 +5531,7 @@
         <v>370</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5546,7 +5539,7 @@
         <v>371</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5554,7 +5547,7 @@
         <v>372</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5562,7 +5555,7 @@
         <v>363</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5570,7 +5563,7 @@
         <v>364</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5578,7 +5571,7 @@
         <v>365</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5586,7 +5579,7 @@
         <v>362</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>527</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5594,7 +5587,7 @@
         <v>360</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>528</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5602,7 +5595,7 @@
         <v>361</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>528</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5610,7 +5603,7 @@
         <v>359</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>529</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5618,7 +5611,7 @@
         <v>358</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>530</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5626,7 +5619,7 @@
         <v>357</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>531</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5634,7 +5627,7 @@
         <v>356</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>532</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5642,7 +5635,7 @@
         <v>355</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5650,7 +5643,7 @@
         <v>353</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5658,7 +5651,7 @@
         <v>354</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5666,7 +5659,7 @@
         <v>351</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>535</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5674,7 +5667,7 @@
         <v>352</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>535</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5682,7 +5675,7 @@
         <v>350</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5690,7 +5683,7 @@
         <v>349</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>537</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5698,7 +5691,7 @@
         <v>348</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>538</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5706,7 +5699,7 @@
         <v>347</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>522</v>
+        <v>465</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5714,7 +5707,7 @@
         <v>346</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>539</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5722,7 +5715,7 @@
         <v>345</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>540</v>
+        <v>483</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5730,7 +5723,7 @@
         <v>339</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>541</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5738,7 +5731,7 @@
         <v>340</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>541</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5746,7 +5739,7 @@
         <v>341</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>542</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5754,7 +5747,7 @@
         <v>342</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>542</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5762,7 +5755,7 @@
         <v>343</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>543</v>
+        <v>486</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5770,7 +5763,7 @@
         <v>344</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>543</v>
+        <v>486</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5778,7 +5771,7 @@
         <v>338</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5786,7 +5779,7 @@
         <v>337</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>544</v>
+        <v>487</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5794,7 +5787,7 @@
         <v>335</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>545</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5802,7 +5795,7 @@
         <v>336</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>545</v>
+        <v>488</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5810,7 +5803,7 @@
         <v>334</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>546</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5818,7 +5811,7 @@
         <v>333</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>547</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5826,7 +5819,7 @@
         <v>332</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>529</v>
+        <v>472</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5834,7 +5827,7 @@
         <v>331</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5842,7 +5835,7 @@
         <v>330</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>548</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5850,7 +5843,7 @@
         <v>329</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>549</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5858,7 +5851,7 @@
         <v>328</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5866,7 +5859,7 @@
         <v>327</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>551</v>
+        <v>494</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5874,7 +5867,7 @@
         <v>326</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>552</v>
+        <v>495</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5882,7 +5875,7 @@
         <v>325</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>553</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5890,7 +5883,7 @@
         <v>324</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>554</v>
+        <v>497</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5898,7 +5891,7 @@
         <v>323</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>500</v>
+        <v>443</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5906,7 +5899,7 @@
         <v>322</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5914,7 +5907,7 @@
         <v>321</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>555</v>
+        <v>498</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5922,7 +5915,7 @@
         <v>320</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>556</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5930,7 +5923,7 @@
         <v>317</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5938,7 +5931,7 @@
         <v>318</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5946,7 +5939,7 @@
         <v>319</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5954,7 +5947,7 @@
         <v>316</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5962,7 +5955,7 @@
         <v>314</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>560</v>
+        <v>503</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5970,7 +5963,7 @@
         <v>315</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>560</v>
+        <v>503</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5978,7 +5971,7 @@
         <v>313</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5986,7 +5979,7 @@
         <v>312</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>562</v>
+        <v>505</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5994,7 +5987,7 @@
         <v>311</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6002,7 +5995,7 @@
         <v>310</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6010,7 +6003,7 @@
         <v>309</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6018,7 +6011,7 @@
         <v>308</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>566</v>
+        <v>509</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6026,7 +6019,7 @@
         <v>307</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>567</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6034,7 +6027,7 @@
         <v>306</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>568</v>
+        <v>511</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6042,7 +6035,7 @@
         <v>305</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6050,7 +6043,7 @@
         <v>304</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6058,7 +6051,7 @@
         <v>303</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6066,7 +6059,7 @@
         <v>302</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6074,7 +6067,7 @@
         <v>301</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6082,7 +6075,7 @@
         <v>300</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>500</v>
+        <v>443</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6090,7 +6083,7 @@
         <v>299</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>574</v>
+        <v>517</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6098,7 +6091,7 @@
         <v>298</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6106,7 +6099,7 @@
         <v>296</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>576</v>
+        <v>519</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6114,7 +6107,7 @@
         <v>297</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>500</v>
+        <v>443</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6122,7 +6115,7 @@
         <v>295</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>577</v>
+        <v>520</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6130,7 +6123,7 @@
         <v>294</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6138,7 +6131,7 @@
         <v>293</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>578</v>
+        <v>521</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6146,7 +6139,7 @@
         <v>292</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6154,7 +6147,7 @@
         <v>291</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6162,7 +6155,7 @@
         <v>290</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6170,7 +6163,7 @@
         <v>289</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6178,7 +6171,7 @@
         <v>288</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>583</v>
+        <v>526</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6186,7 +6179,7 @@
         <v>287</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>584</v>
+        <v>527</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6194,7 +6187,7 @@
         <v>283</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>585</v>
+        <v>528</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6202,7 +6195,7 @@
         <v>284</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>586</v>
+        <v>529</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6210,7 +6203,7 @@
         <v>285</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6218,7 +6211,7 @@
         <v>286</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6226,7 +6219,7 @@
         <v>281</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6234,7 +6227,7 @@
         <v>282</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6242,7 +6235,7 @@
         <v>279</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6250,7 +6243,7 @@
         <v>280</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6258,7 +6251,7 @@
         <v>278</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6266,7 +6259,7 @@
         <v>276</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>500</v>
+        <v>443</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6274,7 +6267,7 @@
         <v>277</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>500</v>
+        <v>443</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6282,7 +6275,7 @@
         <v>275</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6290,7 +6283,7 @@
         <v>274</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6298,7 +6291,7 @@
         <v>272</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6306,7 +6299,7 @@
         <v>273</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6314,7 +6307,7 @@
         <v>271</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>595</v>
+        <v>538</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6322,7 +6315,7 @@
         <v>270</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>596</v>
+        <v>539</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6330,7 +6323,7 @@
         <v>269</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>585</v>
+        <v>528</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6338,7 +6331,7 @@
         <v>260</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6346,7 +6339,7 @@
         <v>261</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6354,7 +6347,7 @@
         <v>262</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6362,7 +6355,7 @@
         <v>263</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6370,7 +6363,7 @@
         <v>264</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6378,7 +6371,7 @@
         <v>265</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6386,7 +6379,7 @@
         <v>266</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6394,7 +6387,7 @@
         <v>267</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -6402,7 +6395,7 @@
         <v>268</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -6416,7 +6409,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6426,117 +6419,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>465</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>466</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>467</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>468</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>469</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>470</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>471</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>472</v>
+        <v>732</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>473</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>474</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>475</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>476</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>477</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>478</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>479</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>480</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>481</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>482</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>483</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>484</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>485</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>486</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>487</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -6549,8 +6542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6560,172 +6553,172 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>432</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>433</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>434</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>435</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>436</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>437</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>438</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>439</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>440</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>441</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>442</v>
+        <v>759</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>443</v>
+        <v>760</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>445</v>
+        <v>762</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>446</v>
+        <v>763</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>447</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>448</v>
+        <v>765</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>449</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>450</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>451</v>
+        <v>768</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>452</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>453</v>
+        <v>770</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>454</v>
+        <v>771</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>455</v>
+        <v>772</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>456</v>
+        <v>773</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>457</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>458</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>459</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>460</v>
+        <v>777</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>461</v>
+        <v>778</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>462</v>
+        <v>779</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>463</v>
+        <v>780</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>464</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
